--- a/DingTalk/UploadFile/Excel/Templet/采购导出模板.xlsx
+++ b/DingTalk/UploadFile/Excel/Templet/采购导出模板.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4167746-91DC-4B9D-BF68-008585CAD39C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293F2E2D-DB16-438D-A4A4-E3B495BD1495}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>流水号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,6 +63,18 @@
   </si>
   <si>
     <t>Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>送货地点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -391,23 +403,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="16.88671875" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
-    <col min="6" max="6" width="11.77734375" customWidth="1"/>
-    <col min="10" max="10" width="15.109375" customWidth="1"/>
-    <col min="11" max="11" width="37" customWidth="1"/>
+    <col min="1" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="14.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" style="1" customWidth="1"/>
+    <col min="7" max="9" width="8.88671875" style="1"/>
+    <col min="10" max="10" width="21.88671875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="27.77734375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="20.88671875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17.109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="16.88671875" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -440,6 +458,15 @@
       </c>
       <c r="K1" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
